--- a/Software Engineering Methods - Individual Assmement.xlsx
+++ b/Software Engineering Methods - Individual Assmement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Decla\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewsc\Desktop\sem38\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D89C70-2AF3-478F-BA32-FAE1A94726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFC593C-DA3E-4018-8D40-33C49995567C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{C48DF21F-4747-42A5-97BD-684A76F6AE82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C48DF21F-4747-42A5-97BD-684A76F6AE82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,15 +467,24 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>33.299999999999997</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>33.299999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="B4">
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
